--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_3_40.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_3_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4290299.26380148</v>
+        <v>4288419.084031152</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673438</v>
+        <v>603248.4937673436</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,13 +668,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>75.30729779173569</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -719,10 +719,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>330.6679898432817</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -823,22 +823,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>124.2196940949804</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>266.6210949690529</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>367.121554986546</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,7 +911,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>10.50623107476266</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>20.26682930112263</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.719592790138594</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>161.0494155854215</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>199.353786541312</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586857</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>43.60620160013897</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1379,10 +1379,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896903</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>29.18937547121062</v>
       </c>
       <c r="U13" t="n">
-        <v>183.1796758467002</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1768,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -1819,19 +1819,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>203.8435192151917</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>4.76542665685969</v>
       </c>
     </row>
     <row r="17">
@@ -2002,10 +2002,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>73.3805213918149</v>
       </c>
       <c r="D19" t="n">
-        <v>101.8448552057458</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>155.4529171376662</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>186.8801586578919</v>
       </c>
       <c r="T19" t="n">
-        <v>210.5069097326779</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>275.1967010728659</v>
@@ -2068,7 +2068,7 @@
         <v>214.6690040633258</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>207.5440020263834</v>
       </c>
     </row>
     <row r="20">
@@ -2093,13 +2093,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>98.92370107808139</v>
       </c>
       <c r="S22" t="n">
         <v>186.8801586578919</v>
@@ -2293,19 +2293,19 @@
         <v>210.5069097326779</v>
       </c>
       <c r="U22" t="n">
-        <v>275.196701072866</v>
+        <v>275.1967010728659</v>
       </c>
       <c r="V22" t="n">
         <v>241.0969919981166</v>
       </c>
       <c r="W22" t="n">
-        <v>275.4823470108796</v>
+        <v>39.43225759193501</v>
       </c>
       <c r="X22" t="n">
         <v>214.6690040633258</v>
       </c>
       <c r="Y22" t="n">
-        <v>70.41761368552008</v>
+        <v>207.5440020263834</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>39.14661165392282</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>70.41761368552056</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>98.92370107808134</v>
       </c>
       <c r="S25" t="n">
-        <v>186.8801586578919</v>
+        <v>186.8801586578918</v>
       </c>
       <c r="T25" t="n">
-        <v>210.5069097326779</v>
+        <v>210.5069097326778</v>
       </c>
       <c r="U25" t="n">
-        <v>275.1967010728659</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>241.0969919981166</v>
@@ -2539,10 +2539,10 @@
         <v>275.4823470108796</v>
       </c>
       <c r="X25" t="n">
-        <v>214.6690040633258</v>
+        <v>214.6690040633257</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>207.5440020263834</v>
       </c>
     </row>
     <row r="26">
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,13 +2713,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>156.2061697729164</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>70.41761368552014</v>
+        <v>90.77008984540304</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>98.92370107808135</v>
       </c>
       <c r="S28" t="n">
-        <v>186.8801586578919</v>
+        <v>186.8801586578918</v>
       </c>
       <c r="T28" t="n">
-        <v>210.5069097326779</v>
+        <v>210.5069097326778</v>
       </c>
       <c r="U28" t="n">
         <v>275.1967010728659</v>
@@ -2773,10 +2773,10 @@
         <v>241.0969919981166</v>
       </c>
       <c r="W28" t="n">
-        <v>275.4823470108796</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>214.6690040633258</v>
+        <v>214.6690040633257</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2959,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>70.41761368552039</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2998,10 +2998,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>186.8801586578919</v>
+        <v>186.8801586578918</v>
       </c>
       <c r="T31" t="n">
-        <v>210.5069097326779</v>
+        <v>210.5069097326778</v>
       </c>
       <c r="U31" t="n">
         <v>275.1967010728659</v>
@@ -3013,10 +3013,10 @@
         <v>275.4823470108796</v>
       </c>
       <c r="X31" t="n">
-        <v>214.6690040633258</v>
+        <v>214.6690040633257</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>70.41761368552081</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463134</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692848</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857166</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463129</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1036.358670716696</v>
+        <v>1328.4755035807</v>
       </c>
       <c r="C2" t="n">
-        <v>1036.358670716696</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2566.052423981306</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2347.417756953369</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2093.65597159146</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1762.593084247889</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1409.824428977775</v>
+        <v>1328.4755035807</v>
       </c>
       <c r="X2" t="n">
-        <v>1036.358670716696</v>
+        <v>1328.4755035807</v>
       </c>
       <c r="Y2" t="n">
-        <v>1036.358670716696</v>
+        <v>1328.4755035807</v>
       </c>
     </row>
     <row r="3">
@@ -4407,19 +4407,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>573.2376265802779</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>426.3476790823676</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>323.2572191628421</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600561</v>
+        <v>323.2572191628421</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600561</v>
+        <v>323.2572191628421</v>
       </c>
       <c r="W4" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1591.868758816787</v>
+        <v>1176.876864157142</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.906241876376</v>
+        <v>1176.876864157142</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>1176.876864157142</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4565,19 +4565,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2686.53673639725</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2686.53673639725</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2686.53673639725</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2686.53673639725</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2355.473849053679</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W5" t="n">
-        <v>2355.473849053679</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X5" t="n">
-        <v>1982.008090792599</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="Y5" t="n">
-        <v>1591.868758816787</v>
+        <v>1563.476704221264</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4644,43 +4644,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.8791647482714</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>678.2405203114477</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>678.2405203114477</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>450.9323329800494</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>450.9323329800494</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>450.9323329800494</v>
       </c>
       <c r="W7" t="n">
-        <v>409.2948950230955</v>
+        <v>450.9323329800494</v>
       </c>
       <c r="X7" t="n">
-        <v>409.2948950230955</v>
+        <v>222.942782082032</v>
       </c>
       <c r="Y7" t="n">
-        <v>404.5276295785111</v>
+        <v>222.942782082032</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1584.823100673951</v>
+        <v>1164.312709242129</v>
       </c>
       <c r="C8" t="n">
-        <v>1584.823100673951</v>
+        <v>1164.312709242129</v>
       </c>
       <c r="D8" t="n">
-        <v>1584.823100673951</v>
+        <v>806.0470106353781</v>
       </c>
       <c r="E8" t="n">
-        <v>1199.034848075707</v>
+        <v>806.0470106353781</v>
       </c>
       <c r="F8" t="n">
-        <v>788.0489432860995</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="G8" t="n">
-        <v>370.0851351842864</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2277.146962837444</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205145</v>
+        <v>2277.146962837444</v>
       </c>
       <c r="W8" t="n">
-        <v>1958.288858935031</v>
+        <v>1924.37830756733</v>
       </c>
       <c r="X8" t="n">
-        <v>1584.823100673951</v>
+        <v>1550.91254930625</v>
       </c>
       <c r="Y8" t="n">
-        <v>1584.823100673951</v>
+        <v>1550.91254930625</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4878,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4890,7 +4890,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064343</v>
+        <v>535.9356573576496</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064343</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064343</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="11">
@@ -5018,16 +5018,16 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5036,13 +5036,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5057,31 +5057,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5106,37 +5106,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571608</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636248</v>
+        <v>709.4934589365143</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5206,7 +5206,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5218,31 +5218,31 @@
         <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U13" t="n">
-        <v>1090.100879744681</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V13" t="n">
-        <v>835.4163915387938</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W13" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028581</v>
       </c>
     </row>
     <row r="14">
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
@@ -5267,40 +5267,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5309,19 +5309,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5352,25 +5352,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>745.6707680030239</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5410,46 +5410,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028587</v>
+        <v>415.509052552801</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>415.509052552801</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241955</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688069</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799358</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471186</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247859</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011508</v>
+        <v>675.0071030383441</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952639</v>
+        <v>420.3226148324572</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>420.3226148324572</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028587</v>
+        <v>420.3226148324572</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028587</v>
+        <v>415.509052552801</v>
       </c>
     </row>
     <row r="17">
@@ -5504,19 +5504,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5531,7 +5531,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5595,22 +5595,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>357.1138312011062</v>
+        <v>171.3388302398967</v>
       </c>
       <c r="C19" t="n">
-        <v>357.1138312011062</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>254.2402400841911</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>254.2402400841911</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>254.2402400841911</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028584</v>
@@ -5677,7 +5677,7 @@
         <v>281.6456777937157</v>
       </c>
       <c r="L19" t="n">
-        <v>540.287967617299</v>
+        <v>540.2879676172992</v>
       </c>
       <c r="M19" t="n">
         <v>822.7849551969362</v>
@@ -5698,25 +5698,25 @@
         <v>1586.358229057536</v>
       </c>
       <c r="S19" t="n">
-        <v>1586.358229057536</v>
+        <v>1397.590392029363</v>
       </c>
       <c r="T19" t="n">
-        <v>1373.724986903316</v>
+        <v>1397.590392029363</v>
       </c>
       <c r="U19" t="n">
-        <v>1095.748521173149</v>
+        <v>1119.613926299195</v>
       </c>
       <c r="V19" t="n">
-        <v>852.216206023536</v>
+        <v>876.0816111495824</v>
       </c>
       <c r="W19" t="n">
-        <v>573.9512090428494</v>
+        <v>597.8166141688959</v>
       </c>
       <c r="X19" t="n">
-        <v>357.1138312011062</v>
+        <v>380.9792363271526</v>
       </c>
       <c r="Y19" t="n">
-        <v>357.1138312011062</v>
+        <v>171.3388302398967</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
@@ -5750,28 +5750,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5786,16 +5786,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5832,25 +5832,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1427.741252113634</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1757.603879777666</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5914,10 +5914,10 @@
         <v>281.6456777937157</v>
       </c>
       <c r="L22" t="n">
-        <v>540.2879676172992</v>
+        <v>540.2879676172993</v>
       </c>
       <c r="M22" t="n">
-        <v>822.7849551969362</v>
+        <v>822.7849551969364</v>
       </c>
       <c r="N22" t="n">
         <v>1104.259309036938</v>
@@ -5932,25 +5932,25 @@
         <v>1586.358229057536</v>
       </c>
       <c r="R22" t="n">
-        <v>1586.358229057536</v>
+        <v>1486.435298675636</v>
       </c>
       <c r="S22" t="n">
-        <v>1397.590392029363</v>
+        <v>1297.667461647462</v>
       </c>
       <c r="T22" t="n">
-        <v>1184.957149875143</v>
+        <v>1085.034219493242</v>
       </c>
       <c r="U22" t="n">
-        <v>906.9806841449749</v>
+        <v>807.0577537630745</v>
       </c>
       <c r="V22" t="n">
-        <v>663.4483689953622</v>
+        <v>563.5254386134618</v>
       </c>
       <c r="W22" t="n">
-        <v>385.1833720146757</v>
+        <v>523.694875389285</v>
       </c>
       <c r="X22" t="n">
-        <v>168.3459941729324</v>
+        <v>306.8574975475418</v>
       </c>
       <c r="Y22" t="n">
         <v>97.21709146028584</v>
@@ -5978,22 +5978,22 @@
         <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K23" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6066,28 +6066,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>412.6079778147082</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>659.3731057211725</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>966.6932390011343</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>168.3459941729329</v>
+        <v>136.7591234339453</v>
       </c>
       <c r="C25" t="n">
-        <v>168.3459941729329</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>168.3459941729329</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>168.3459941729329</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
         <v>97.21709146028584</v>
@@ -6145,52 +6145,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>120.53002873665</v>
+        <v>120.5300287366501</v>
       </c>
       <c r="K25" t="n">
         <v>281.6456777937158</v>
       </c>
       <c r="L25" t="n">
-        <v>540.2879676172993</v>
+        <v>540.2879676172995</v>
       </c>
       <c r="M25" t="n">
-        <v>822.7849551969364</v>
+        <v>822.7849551969366</v>
       </c>
       <c r="N25" t="n">
-        <v>1104.259309036938</v>
+        <v>1104.259309036939</v>
       </c>
       <c r="O25" t="n">
-        <v>1349.064531854789</v>
+        <v>1349.06453185479</v>
       </c>
       <c r="P25" t="n">
         <v>1536.594541272927</v>
       </c>
       <c r="Q25" t="n">
-        <v>1586.358229057537</v>
+        <v>1586.358229057538</v>
       </c>
       <c r="R25" t="n">
-        <v>1586.358229057537</v>
+        <v>1486.435298675637</v>
       </c>
       <c r="S25" t="n">
-        <v>1397.590392029363</v>
+        <v>1297.667461647464</v>
       </c>
       <c r="T25" t="n">
-        <v>1184.957149875143</v>
+        <v>1085.034219493244</v>
       </c>
       <c r="U25" t="n">
-        <v>906.9806841449754</v>
+        <v>1085.034219493244</v>
       </c>
       <c r="V25" t="n">
-        <v>663.4483689953626</v>
+        <v>841.5019043436309</v>
       </c>
       <c r="W25" t="n">
-        <v>385.1833720146761</v>
+        <v>563.2369073629444</v>
       </c>
       <c r="X25" t="n">
-        <v>168.3459941729329</v>
+        <v>346.3995295212012</v>
       </c>
       <c r="Y25" t="n">
-        <v>168.3459941729329</v>
+        <v>136.7591234339453</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
         <v>1701.093169003441</v>
@@ -6212,22 +6212,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6236,40 +6236,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1470.815640507007</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>168.3459941729326</v>
+        <v>346.6880607717197</v>
       </c>
       <c r="C28" t="n">
-        <v>168.3459941729326</v>
+        <v>188.9040509000869</v>
       </c>
       <c r="D28" t="n">
-        <v>168.3459941729326</v>
+        <v>188.9040509000869</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>120.53002873665</v>
+        <v>120.5300287366501</v>
       </c>
       <c r="K28" t="n">
         <v>281.6456777937158</v>
       </c>
       <c r="L28" t="n">
-        <v>540.2879676172993</v>
+        <v>540.2879676172995</v>
       </c>
       <c r="M28" t="n">
-        <v>822.7849551969362</v>
+        <v>822.7849551969366</v>
       </c>
       <c r="N28" t="n">
         <v>1104.259309036938</v>
       </c>
       <c r="O28" t="n">
-        <v>1349.064531854789</v>
+        <v>1349.06453185479</v>
       </c>
       <c r="P28" t="n">
-        <v>1536.594541272926</v>
+        <v>1536.594541272927</v>
       </c>
       <c r="Q28" t="n">
-        <v>1586.358229057536</v>
+        <v>1586.358229057537</v>
       </c>
       <c r="R28" t="n">
-        <v>1586.358229057536</v>
+        <v>1486.435298675637</v>
       </c>
       <c r="S28" t="n">
-        <v>1397.590392029363</v>
+        <v>1297.667461647463</v>
       </c>
       <c r="T28" t="n">
-        <v>1184.957149875143</v>
+        <v>1085.034219493243</v>
       </c>
       <c r="U28" t="n">
-        <v>906.980684144975</v>
+        <v>807.0577537630754</v>
       </c>
       <c r="V28" t="n">
-        <v>663.4483689953622</v>
+        <v>563.5254386134628</v>
       </c>
       <c r="W28" t="n">
-        <v>385.1833720146758</v>
+        <v>563.5254386134628</v>
       </c>
       <c r="X28" t="n">
-        <v>168.3459941729326</v>
+        <v>346.6880607717197</v>
       </c>
       <c r="Y28" t="n">
-        <v>168.3459941729326</v>
+        <v>346.6880607717197</v>
       </c>
     </row>
     <row r="29">
@@ -6440,49 +6440,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6528,40 +6528,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>485.4047026089406</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>732.1698305154048</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>168.3459941729326</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>168.3459941729326</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>168.3459941729326</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>168.3459941729326</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
         <v>97.21709146028584</v>
@@ -6619,13 +6619,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>120.5300287366501</v>
+        <v>120.53002873665</v>
       </c>
       <c r="K31" t="n">
         <v>281.6456777937158</v>
       </c>
       <c r="L31" t="n">
-        <v>540.2879676172993</v>
+        <v>540.2879676172994</v>
       </c>
       <c r="M31" t="n">
         <v>822.7849551969364</v>
@@ -6637,13 +6637,13 @@
         <v>1349.064531854789</v>
       </c>
       <c r="P31" t="n">
-        <v>1536.594541272926</v>
+        <v>1536.594541272927</v>
       </c>
       <c r="Q31" t="n">
-        <v>1586.358229057536</v>
+        <v>1586.358229057537</v>
       </c>
       <c r="R31" t="n">
-        <v>1586.358229057536</v>
+        <v>1586.358229057537</v>
       </c>
       <c r="S31" t="n">
         <v>1397.590392029363</v>
@@ -6652,19 +6652,19 @@
         <v>1184.957149875143</v>
       </c>
       <c r="U31" t="n">
-        <v>906.9806841449749</v>
+        <v>906.9806841449754</v>
       </c>
       <c r="V31" t="n">
-        <v>663.4483689953622</v>
+        <v>663.4483689953627</v>
       </c>
       <c r="W31" t="n">
-        <v>385.1833720146758</v>
+        <v>385.1833720146763</v>
       </c>
       <c r="X31" t="n">
-        <v>168.3459941729326</v>
+        <v>168.3459941729331</v>
       </c>
       <c r="Y31" t="n">
-        <v>168.3459941729326</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6686,31 +6686,31 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6722,13 +6722,13 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6765,40 +6765,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766204</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C34" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F34" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6856,13 +6856,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525398</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649694</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6871,37 +6871,37 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T34" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="35">
@@ -6917,37 +6917,37 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823789</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -7017,19 +7017,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1427.741252113633</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1757.603879777666</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2037.143944996363</v>
       </c>
       <c r="P36" t="n">
         <v>2317.834075963124</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C37" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
         <v>320.8847398504512</v>
@@ -7090,7 +7090,7 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J37" t="n">
         <v>177.0503551525401</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="38">
@@ -7154,55 +7154,55 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823779</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514075</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
         <v>4262.3578574653</v>
@@ -7239,37 +7239,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571608</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636248</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1925.814757496977</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2446.115379232724</v>
       </c>
       <c r="Q39" t="n">
         <v>2612.943493278838</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108336</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229676</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D40" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E40" t="n">
-        <v>398.954596308321</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504518</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982967</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
@@ -7336,7 +7336,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045213</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010323</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="41">
@@ -7488,22 +7488,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>880.8106280646857</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P42" t="n">
         <v>2317.834075963124</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108325</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229666</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F43" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7588,7 +7588,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7606,13 +7606,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="44">
@@ -7725,28 +7725,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1646.274692278279</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1925.814757496976</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108328</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C46" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504509</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103126</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254955</v>
+        <v>394.686330625496</v>
       </c>
       <c r="L46" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649695</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7825,7 +7825,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050814</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8070,7 +8070,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>350.4438349360586</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8301,7 +8301,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516221</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8538,10 +8538,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8766,13 +8766,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>176.7176547498455</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8781,13 +8781,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -9006,13 +9006,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>87.16935584025435</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9243,7 +9243,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9252,16 +9252,16 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>369.0893880493734</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,28 +9480,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>87.16935584025367</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9717,7 +9717,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9726,19 +9726,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>234.4116509503156</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208061</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,13 +9951,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9966,16 +9966,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>32.92248665775548</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10121,7 +10121,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119823</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
@@ -10188,10 +10188,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>199.6230805871083</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10200,19 +10200,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10440,16 +10440,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>96.0374492781462</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10665,13 +10665,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10680,7 +10680,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208067</v>
+        <v>76.43196988338542</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10820,10 +10820,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720731</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711659</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10899,10 +10899,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10911,16 +10911,16 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>80.5002137261522</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11136,13 +11136,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>349.7653003338569</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11154,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11373,10 +11373,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11385,19 +11385,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>199.6230805871095</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="U13" t="n">
-        <v>103.0576765518771</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23656,7 +23656,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,7 +23665,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,19 +23707,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>213.8192266952351</v>
       </c>
     </row>
     <row r="17">
@@ -23890,10 +23890,10 @@
         <v>168.7913288562259</v>
       </c>
       <c r="C19" t="n">
-        <v>156.2061697729164</v>
+        <v>82.82564838110154</v>
       </c>
       <c r="D19" t="n">
-        <v>35.72996648675515</v>
+        <v>137.574821692501</v>
       </c>
       <c r="E19" t="n">
         <v>135.3933113208578</v>
@@ -23902,13 +23902,13 @@
         <v>134.3803966972199</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>155.4529171376662</v>
       </c>
       <c r="H19" t="n">
-        <v>137.8731770418247</v>
+        <v>137.8731770418248</v>
       </c>
       <c r="I19" t="n">
-        <v>99.37859413856059</v>
+        <v>99.37859413856062</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>98.92370107808139</v>
+        <v>98.92370107808142</v>
       </c>
       <c r="S19" t="n">
-        <v>186.8801586578919</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>210.5069097326779</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>207.5440020263834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,7 +24127,7 @@
         <v>168.7913288562259</v>
       </c>
       <c r="C22" t="n">
-        <v>156.2061697729165</v>
+        <v>156.2061697729164</v>
       </c>
       <c r="D22" t="n">
         <v>137.574821692501</v>
@@ -24145,7 +24145,7 @@
         <v>137.8731770418248</v>
       </c>
       <c r="I22" t="n">
-        <v>99.37859413856063</v>
+        <v>99.37859413856062</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>98.92370107808144</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24187,13 +24187,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>236.0500894189446</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>137.1263883408633</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,25 +24364,25 @@
         <v>168.7913288562259</v>
       </c>
       <c r="C25" t="n">
-        <v>156.2061697729165</v>
+        <v>117.0595581189936</v>
       </c>
       <c r="D25" t="n">
-        <v>137.574821692501</v>
+        <v>137.5748216925009</v>
       </c>
       <c r="E25" t="n">
-        <v>135.3933113208578</v>
+        <v>135.3933113208577</v>
       </c>
       <c r="F25" t="n">
-        <v>63.96278301169932</v>
+        <v>134.3803966972198</v>
       </c>
       <c r="G25" t="n">
         <v>155.4529171376662</v>
       </c>
       <c r="H25" t="n">
-        <v>137.8731770418248</v>
+        <v>137.8731770418247</v>
       </c>
       <c r="I25" t="n">
-        <v>99.3785941385606</v>
+        <v>99.37859413856056</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>98.92370107808141</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>275.1967010728659</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>207.5440020263834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,25 +24601,25 @@
         <v>168.7913288562259</v>
       </c>
       <c r="C28" t="n">
-        <v>156.2061697729164</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>137.574821692501</v>
+        <v>137.5748216925009</v>
       </c>
       <c r="E28" t="n">
-        <v>64.97569763533764</v>
+        <v>44.62322147545471</v>
       </c>
       <c r="F28" t="n">
-        <v>134.3803966972199</v>
+        <v>134.3803966972198</v>
       </c>
       <c r="G28" t="n">
         <v>155.4529171376662</v>
       </c>
       <c r="H28" t="n">
-        <v>137.8731770418248</v>
+        <v>137.8731770418247</v>
       </c>
       <c r="I28" t="n">
-        <v>99.37859413856062</v>
+        <v>99.37859413856054</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>98.92370107808142</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>275.4823470108796</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24841,13 +24841,13 @@
         <v>156.2061697729164</v>
       </c>
       <c r="D31" t="n">
-        <v>137.574821692501</v>
+        <v>137.5748216925009</v>
       </c>
       <c r="E31" t="n">
-        <v>135.3933113208578</v>
+        <v>135.3933113208577</v>
       </c>
       <c r="F31" t="n">
-        <v>63.96278301169946</v>
+        <v>134.3803966972198</v>
       </c>
       <c r="G31" t="n">
         <v>155.4529171376662</v>
@@ -24856,7 +24856,7 @@
         <v>137.8731770418247</v>
       </c>
       <c r="I31" t="n">
-        <v>99.37859413856059</v>
+        <v>99.37859413856054</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>98.92370107808139</v>
+        <v>98.92370107808135</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>207.5440020263834</v>
+        <v>137.1263883408626</v>
       </c>
     </row>
     <row r="32">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>612668.3267851267</v>
+        <v>612668.3267851266</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>612668.3267851267</v>
+        <v>612668.3267851266</v>
       </c>
     </row>
     <row r="9">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642829</v>
+        <v>821041.7698642832</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.769864283</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.7698642832</v>
+        <v>821041.769864283</v>
       </c>
       <c r="E2" t="n">
         <v>782058.1194754175</v>
       </c>
       <c r="F2" t="n">
-        <v>782058.1194754177</v>
+        <v>782058.1194754178</v>
       </c>
       <c r="G2" t="n">
         <v>788375.3505184435</v>
@@ -26332,28 +26332,28 @@
         <v>788375.3505184435</v>
       </c>
       <c r="I2" t="n">
+        <v>788375.3505184437</v>
+      </c>
+      <c r="J2" t="n">
         <v>788375.3505184435</v>
       </c>
-      <c r="J2" t="n">
-        <v>788375.3505184434</v>
-      </c>
       <c r="K2" t="n">
-        <v>788375.3505184432</v>
+        <v>788375.3505184436</v>
       </c>
       <c r="L2" t="n">
+        <v>821041.7698642845</v>
+      </c>
+      <c r="M2" t="n">
         <v>821041.7698642842</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>821041.7698642843</v>
-      </c>
-      <c r="N2" t="n">
-        <v>821041.7698642844</v>
       </c>
       <c r="O2" t="n">
         <v>821041.7698642843</v>
       </c>
       <c r="P2" t="n">
-        <v>821041.7698642842</v>
+        <v>821041.7698642844</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,28 +26372,28 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
-        <v>1.30296939460095e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>8832.521060569126</v>
+        <v>8832.521060569105</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>2.823124987116899e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925927</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>54505.51210371252</v>
+        <v>54505.51210371251</v>
       </c>
       <c r="M3" t="n">
         <v>134801.015233837</v>
@@ -26424,40 +26424,40 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687077</v>
+        <v>22174.60758687073</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687073</v>
       </c>
       <c r="G4" t="n">
+        <v>25807.53208971001</v>
+      </c>
+      <c r="H4" t="n">
         <v>25807.53208971002</v>
       </c>
-      <c r="H4" t="n">
-        <v>25807.53208971003</v>
-      </c>
       <c r="I4" t="n">
-        <v>25807.53208971</v>
+        <v>25807.53208971001</v>
       </c>
       <c r="J4" t="n">
+        <v>25807.53208970999</v>
+      </c>
+      <c r="K4" t="n">
         <v>25807.53208971001</v>
       </c>
-      <c r="K4" t="n">
-        <v>25807.53208971002</v>
-      </c>
       <c r="L4" t="n">
-        <v>44593.3948281912</v>
+        <v>44593.39482819118</v>
       </c>
       <c r="M4" t="n">
-        <v>44593.3948281912</v>
+        <v>44593.39482819122</v>
       </c>
       <c r="N4" t="n">
-        <v>44593.39482819125</v>
+        <v>44593.39482819119</v>
       </c>
       <c r="O4" t="n">
         <v>44593.3948281912</v>
       </c>
       <c r="P4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.3948281912</v>
       </c>
     </row>
     <row r="5">
@@ -26473,37 +26473,37 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>92915.50246501785</v>
       </c>
       <c r="H5" t="n">
-        <v>92915.50246501785</v>
+        <v>92915.50246501787</v>
       </c>
       <c r="I5" t="n">
         <v>92915.50246501787</v>
       </c>
       <c r="J5" t="n">
-        <v>92915.50246501785</v>
+        <v>92915.50246501788</v>
       </c>
       <c r="K5" t="n">
-        <v>92915.50246501785</v>
+        <v>92915.50246501787</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
         <v>97715.10582002539</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-17418.05520019538</v>
+        <v>-17418.05520019523</v>
       </c>
       <c r="C6" t="n">
-        <v>572549.8240143495</v>
+        <v>572549.8240143493</v>
       </c>
       <c r="D6" t="n">
-        <v>572549.8240143494</v>
+        <v>572549.8240143493</v>
       </c>
       <c r="E6" t="n">
-        <v>142736.1494629341</v>
+        <v>142638.6903369619</v>
       </c>
       <c r="F6" t="n">
-        <v>667896.1859398303</v>
+        <v>667798.7268138583</v>
       </c>
       <c r="G6" t="n">
-        <v>660819.7949031466</v>
+        <v>660738.128854782</v>
       </c>
       <c r="H6" t="n">
-        <v>669652.3159637157</v>
+        <v>669570.6499153511</v>
       </c>
       <c r="I6" t="n">
-        <v>669652.3159637155</v>
+        <v>669570.6499153511</v>
       </c>
       <c r="J6" t="n">
-        <v>493229.0967711228</v>
+        <v>493147.4307227581</v>
       </c>
       <c r="K6" t="n">
-        <v>669652.3159637153</v>
+        <v>669570.6499153512</v>
       </c>
       <c r="L6" t="n">
-        <v>624227.7571123551</v>
+        <v>624227.7571123554</v>
       </c>
       <c r="M6" t="n">
-        <v>543932.2539822307</v>
+        <v>543932.2539822304</v>
       </c>
       <c r="N6" t="n">
-        <v>678733.2692160679</v>
+        <v>678733.2692160677</v>
       </c>
       <c r="O6" t="n">
         <v>678733.2692160677</v>
       </c>
       <c r="P6" t="n">
-        <v>678733.2692160676</v>
+        <v>678733.2692160677</v>
       </c>
     </row>
   </sheetData>
@@ -26698,34 +26698,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
+        <v>11.04065132571138</v>
+      </c>
+      <c r="H2" t="n">
+        <v>11.04065132571138</v>
+      </c>
+      <c r="I2" t="n">
         <v>11.04065132571141</v>
       </c>
-      <c r="H2" t="n">
-        <v>11.04065132571137</v>
-      </c>
-      <c r="I2" t="n">
-        <v>11.04065132571137</v>
-      </c>
       <c r="J2" t="n">
-        <v>11.04065132571138</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="K2" t="n">
         <v>11.04065132571141</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.13189012964065</v>
       </c>
-      <c r="M2" t="n">
-        <v>68.13189012964069</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964069</v>
-      </c>
       <c r="O2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26753,19 +26753,19 @@
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
+        <v>830.3824054541006</v>
+      </c>
+      <c r="J3" t="n">
         <v>830.3824054541004</v>
       </c>
-      <c r="J3" t="n">
-        <v>830.3824054541002</v>
-      </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
         <v>830.3824054541002</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26920,13 +26920,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.197442310920451e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990169</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,13 +27157,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.197442310920451e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,13 +27388,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>99.10841501723584</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27439,10 +27439,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>18.57297887413131</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27543,22 +27543,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>22.21426855158876</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>19.90190336753813</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>14.80881508571576</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27631,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>43.97217150004905</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27786,7 +27786,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>126.3983626790352</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>213.8650605619562</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>162.8733571789357</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,19 +27898,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>51.87038096697731</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060687</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,22 +28053,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>168.5393373498799</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28099,10 +28099,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="G11" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="C19" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="D19" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="E19" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="F19" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="G19" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="H19" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="I19" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="J19" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="K19" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="L19" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="M19" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="N19" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="O19" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="P19" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="Q19" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="R19" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="S19" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="T19" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="U19" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="V19" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="W19" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="X19" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="Y19" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571138</v>
       </c>
     </row>
     <row r="20">
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="C22" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="D22" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="E22" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="F22" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="G22" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="H22" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="I22" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="J22" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="K22" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="L22" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="M22" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="N22" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="O22" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="P22" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="Q22" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="R22" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="S22" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="T22" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="U22" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="V22" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="W22" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="X22" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="Y22" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571138</v>
       </c>
     </row>
     <row r="23">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="C25" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="D25" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="E25" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="F25" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="G25" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="H25" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="I25" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="J25" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="K25" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="L25" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="M25" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="N25" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="O25" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="P25" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="Q25" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="R25" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="S25" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="T25" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="U25" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="V25" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="W25" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="X25" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="Y25" t="n">
-        <v>11.04065132571137</v>
+        <v>11.04065132571141</v>
       </c>
     </row>
     <row r="26">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>11.04065132571138</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="C28" t="n">
-        <v>11.04065132571138</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="D28" t="n">
-        <v>11.04065132571138</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="E28" t="n">
-        <v>11.04065132571138</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="F28" t="n">
-        <v>11.04065132571138</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="G28" t="n">
-        <v>11.04065132571138</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="H28" t="n">
-        <v>11.04065132571138</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="I28" t="n">
-        <v>11.04065132571138</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="J28" t="n">
-        <v>11.04065132571138</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="K28" t="n">
-        <v>11.04065132571138</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="L28" t="n">
-        <v>11.04065132571138</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="M28" t="n">
-        <v>11.04065132571138</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="N28" t="n">
-        <v>11.04065132571138</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="O28" t="n">
-        <v>11.04065132571138</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="P28" t="n">
-        <v>11.04065132571138</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="Q28" t="n">
-        <v>11.04065132571138</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="R28" t="n">
-        <v>11.04065132571138</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="S28" t="n">
-        <v>11.04065132571138</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="T28" t="n">
-        <v>11.04065132571138</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="U28" t="n">
-        <v>11.04065132571138</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="V28" t="n">
-        <v>11.04065132571138</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="W28" t="n">
-        <v>11.04065132571138</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="X28" t="n">
-        <v>11.04065132571138</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="Y28" t="n">
-        <v>11.04065132571138</v>
+        <v>11.04065132571141</v>
       </c>
     </row>
     <row r="29">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30241,7 +30241,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H23" t="n">
         <v>34.18755300444946</v>
@@ -32707,40 +32707,40 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,7 +32783,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
@@ -32792,19 +32792,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q24" t="n">
         <v>227.9948068710957</v>
@@ -32813,13 +32813,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M25" t="n">
         <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q25" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,10 +33111,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,10 +33348,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,10 +33585,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>401.1632560839189</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,19 +35021,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,13 +35258,13 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35486,13 +35486,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>425.9753597058698</v>
       </c>
       <c r="M12" t="n">
         <v>310.4243770504662</v>
@@ -35501,13 +35501,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
         <v>528.689756130333</v>
@@ -35726,13 +35726,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>336.4270607962786</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980128</v>
@@ -35741,7 +35741,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35963,7 +35963,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
@@ -35972,16 +35972,16 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>702.2839614473862</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>23.54842149127693</v>
+        <v>23.5484214912769</v>
       </c>
       <c r="K19" t="n">
         <v>162.7430798556219</v>
@@ -36057,10 +36057,10 @@
         <v>247.2780028463142</v>
       </c>
       <c r="P19" t="n">
-        <v>189.4242519375122</v>
+        <v>189.4242519375121</v>
       </c>
       <c r="Q19" t="n">
-        <v>50.26635129758616</v>
+        <v>50.26635129758613</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>369.5330580813618</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>23.54842149127688</v>
+        <v>23.54842149127691</v>
       </c>
       <c r="K22" t="n">
         <v>162.7430798556219</v>
@@ -36291,13 +36291,13 @@
         <v>284.317529131315</v>
       </c>
       <c r="O22" t="n">
-        <v>247.2780028463142</v>
+        <v>247.2780028463143</v>
       </c>
       <c r="P22" t="n">
-        <v>189.4242519375121</v>
+        <v>189.4242519375122</v>
       </c>
       <c r="Q22" t="n">
-        <v>50.26635129758611</v>
+        <v>50.26635129758614</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>567.6062243483286</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523309</v>
+        <v>525.556183571462</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>23.54842149127693</v>
+        <v>23.54842149127698</v>
       </c>
       <c r="K25" t="n">
-        <v>162.743079855622</v>
+        <v>162.7430798556221</v>
       </c>
       <c r="L25" t="n">
-        <v>261.25483820564</v>
+        <v>261.2548382056401</v>
       </c>
       <c r="M25" t="n">
-        <v>285.3504925046839</v>
+        <v>285.350492504684</v>
       </c>
       <c r="N25" t="n">
-        <v>284.317529131315</v>
+        <v>284.3175291313152</v>
       </c>
       <c r="O25" t="n">
-        <v>247.2780028463143</v>
+        <v>247.2780028463144</v>
       </c>
       <c r="P25" t="n">
-        <v>189.4242519375122</v>
+        <v>189.4242519375123</v>
       </c>
       <c r="Q25" t="n">
-        <v>50.26635129758614</v>
+        <v>50.26635129758621</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,28 +36595,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>315.2861888988637</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>23.5484214912769</v>
+        <v>23.54842149127695</v>
       </c>
       <c r="K28" t="n">
-        <v>162.7430798556219</v>
+        <v>162.743079855622</v>
       </c>
       <c r="L28" t="n">
-        <v>261.2548382056399</v>
+        <v>261.25483820564</v>
       </c>
       <c r="M28" t="n">
         <v>285.3504925046839</v>
       </c>
       <c r="N28" t="n">
-        <v>284.317529131315</v>
+        <v>284.3175291313151</v>
       </c>
       <c r="O28" t="n">
-        <v>247.2780028463142</v>
+        <v>247.2780028463143</v>
       </c>
       <c r="P28" t="n">
-        <v>189.4242519375121</v>
+        <v>189.4242519375122</v>
       </c>
       <c r="Q28" t="n">
-        <v>50.26635129758613</v>
+        <v>50.26635129758618</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,28 +36832,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081101</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>350.1985191750476</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>23.54842149127693</v>
+        <v>23.54842149127695</v>
       </c>
       <c r="K31" t="n">
-        <v>162.7430798556219</v>
+        <v>162.743079855622</v>
       </c>
       <c r="L31" t="n">
-        <v>261.2548382056399</v>
+        <v>261.25483820564</v>
       </c>
       <c r="M31" t="n">
         <v>285.3504925046839</v>
       </c>
       <c r="N31" t="n">
-        <v>284.317529131315</v>
+        <v>284.3175291313151</v>
       </c>
       <c r="O31" t="n">
-        <v>247.2780028463142</v>
+        <v>247.2780028463143</v>
       </c>
       <c r="P31" t="n">
         <v>189.4242519375122</v>
       </c>
       <c r="Q31" t="n">
-        <v>50.26635129758616</v>
+        <v>50.26635129758618</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,28 +37069,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>378.4011515192544</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,13 +37236,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352444</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37385,13 +37385,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980128</v>
@@ -37400,7 +37400,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523313</v>
+        <v>283.5253848149101</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37479,7 +37479,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37540,10 +37540,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415072</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
@@ -37631,16 +37631,16 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>168.5132465112263</v>
       </c>
       <c r="R39" t="n">
         <v>10.73738595686864</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,13 +37710,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>599.0230052898812</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504662</v>
@@ -37874,7 +37874,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
@@ -38105,19 +38105,19 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>406.7164955186342</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,7 +38184,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
